--- a/TestData/usermeassage.xlsx
+++ b/TestData/usermeassage.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amay/PycharmProjects/DC_API/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="460" windowWidth="28200" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="900" yWindow="1160" windowWidth="28200" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>sms</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,18 @@
   </si>
   <si>
     <t>2edxsdsasd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15051869421</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2311322</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -125,8 +137,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -407,7 +420,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -420,10 +433,10 @@
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -431,22 +444,22 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>15051869421</v>
-      </c>
-      <c r="C2">
-        <v>123456</v>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>15051869421</v>
-      </c>
-      <c r="C3">
-        <v>2311322</v>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -456,8 +469,8 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
-        <v>123456</v>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
